--- a/xlsx/牛奶_intext.xlsx
+++ b/xlsx/牛奶_intext.xlsx
@@ -29,7 +29,7 @@
     <t>雌性</t>
   </si>
   <si>
-    <t>政策_政策_美國_牛奶</t>
+    <t>政策_政策_美国_牛奶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E7%89%9B</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%A3%E8%B3%AA</t>
   </si>
   <si>
-    <t>鈣質</t>
+    <t>钙质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B2%B9</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E9%87%8F</t>
   </si>
   <si>
-    <t>熱量</t>
+    <t>热量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%A1</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E7%86%B1%E9%87%8F</t>
   </si>
   <si>
-    <t>食物熱量</t>
+    <t>食物热量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%96%E7%B1%BB</t>
@@ -143,19 +143,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%BD%E5%92%8C%E8%84%82%E8%82%AA</t>
   </si>
   <si>
-    <t>飽和脂肪</t>
+    <t>饱和脂肪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E5%85%83%E4%B8%8D%E9%A3%BD%E5%92%8C%E8%84%82%E8%82%AA</t>
   </si>
   <si>
-    <t>單元不飽和脂肪</t>
+    <t>单元不饱和脂肪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E4%B8%8D%E9%A3%BD%E5%92%8C%E8%84%82%E8%82%AA</t>
   </si>
   <si>
-    <t>多元不飽和脂肪</t>
+    <t>多元不饱和脂肪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%B0%A8%E9%85%B8</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>蘇氨酸</t>
+    <t>苏氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E4%BA%AE%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>異亮氨酸</t>
+    <t>异亮氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AE%E6%B0%A8%E9%85%B8</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>賴氨酸</t>
+    <t>赖氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E6%B0%A8%E9%85%B8</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%88%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>纈氨酸</t>
+    <t>缬氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E6%B0%A8%E9%85%B8</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>組氨酸</t>
+    <t>组氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%99%E6%B0%A8%E9%85%B8</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>穀氨酸</t>
+    <t>谷氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%B0%A8%E9%85%B8</t>
@@ -263,19 +263,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B2%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>絲氨酸</t>
+    <t>丝氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0</t>
   </si>
   <si>
-    <t>維生素</t>
+    <t>维生素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0A</t>
   </si>
   <si>
-    <t>維生素A</t>
+    <t>维生素A</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E8%83%BA</t>
@@ -299,37 +299,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0D</t>
   </si>
   <si>
-    <t>維生素D</t>
+    <t>维生素D</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%A4%A6%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>膳食礦物質</t>
+    <t>膳食矿物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%A3%E7%87%9F%E9%A4%8A</t>
   </si>
   <si>
-    <t>鈣營養</t>
+    <t>钙营养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%82</t>
   </si>
   <si>
-    <t>鎂</t>
+    <t>镁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%89%80</t>
   </si>
   <si>
-    <t>鉀</t>
+    <t>钾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%89</t>
   </si>
   <si>
-    <t>鈉</t>
+    <t>钠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4</t>
@@ -365,25 +365,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>膳食纖維</t>
+    <t>膳食纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%BB%83%E7%B4%A0</t>
   </si>
   <si>
-    <t>葉黃素</t>
+    <t>叶黄素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3%E9%BB%83%E7%B4%A0</t>
   </si>
   <si>
-    <t>玉米黃素</t>
+    <t>玉米黄素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B8%E9%B9%BC%E9%85%B8</t>
   </si>
   <si>
-    <t>菸鹼酸</t>
+    <t>菸碱酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%85%B8</t>
@@ -419,31 +419,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0C</t>
   </si>
   <si>
-    <t>維生素C</t>
+    <t>维生素C</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0E</t>
   </si>
   <si>
-    <t>維生素E</t>
+    <t>维生素E</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0K</t>
   </si>
   <si>
-    <t>維生素K</t>
+    <t>维生素K</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%B3</t>
   </si>
   <si>
-    <t>錳</t>
+    <t>锰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%85</t>
   </si>
   <si>
-    <t>鋅</t>
+    <t>锌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E7%B3%96%E4%B8%8D%E8%80%90%E7%97%87</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%86%A3</t>
   </si>
   <si>
-    <t>雙醣</t>
+    <t>双醣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E8%A3%BD%E5%93%81</t>
   </si>
   <si>
-    <t>乳製品</t>
+    <t>乳制品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>華人</t>
+    <t>华人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E6%AF%92</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AE%BA%E8%8F%8C</t>
   </si>
   <si>
-    <t>殺菌</t>
+    <t>杀菌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%BE%B7%E6%B6%88%E6%AF%92%E6%B3%95</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AB%98%E6%BA%AB%E6%B6%88%E6%AF%92%E6%B3%95</t>
   </si>
   <si>
-    <t>超高溫消毒法</t>
+    <t>超高温消毒法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Flash_pasteurization</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%89%E5%A5%B6</t>
   </si>
   <si>
-    <t>煉奶</t>
+    <t>炼奶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B6%E7%B2%89</t>
@@ -605,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E9%81%8E%E6%95%8F</t>
   </si>
   <si>
-    <t>食物過敏</t>
+    <t>食物过敏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E7%9B%B2%E5%BE%9E%E7%8F%BE%E8%B1%A1</t>
   </si>
   <si>
-    <t>食物盲從現象</t>
+    <t>食物盲从现象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/YouTube</t>
@@ -2238,7 +2238,7 @@
         <v>88</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -2267,7 +2267,7 @@
         <v>90</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -2296,7 +2296,7 @@
         <v>92</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -2731,7 +2731,7 @@
         <v>122</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -2760,7 +2760,7 @@
         <v>124</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -2818,7 +2818,7 @@
         <v>128</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -2847,7 +2847,7 @@
         <v>130</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
